--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6657819362620041</v>
+        <v>0.6656782362548082</v>
       </c>
       <c r="C2">
-        <v>0.7119552434290941</v>
+        <v>0.7098241526097382</v>
       </c>
       <c r="D2">
-        <v>1.363570368815664</v>
+        <v>1.356451150188942</v>
       </c>
       <c r="E2">
-        <v>0.6957087287868922</v>
+        <v>0.6948499821685598</v>
       </c>
       <c r="F2">
-        <v>0.6778506386823564</v>
+        <v>0.6767035828922799</v>
       </c>
       <c r="G2">
-        <v>0.7409311282091716</v>
+        <v>0.739899615432439</v>
       </c>
       <c r="H2">
-        <v>0.6961824707387121</v>
+        <v>0.6952771648018571</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6952135240866476</v>
+        <v>0.6945291719047449</v>
       </c>
       <c r="C3">
-        <v>0.7184760233782439</v>
+        <v>0.7155518372566629</v>
       </c>
       <c r="D3">
-        <v>1.277462781813832</v>
+        <v>1.276233810667159</v>
       </c>
       <c r="E3">
-        <v>0.7026305433955545</v>
+        <v>0.7010362124351743</v>
       </c>
       <c r="F3">
-        <v>0.6994147491102443</v>
+        <v>0.6980272502158601</v>
       </c>
       <c r="G3">
-        <v>0.7446850036317673</v>
+        <v>0.7431061246380334</v>
       </c>
       <c r="H3">
-        <v>0.702843716058245</v>
+        <v>0.7012035129671159</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6116678401586156</v>
+        <v>0.6115471694156789</v>
       </c>
       <c r="C4">
-        <v>0.7426941941787492</v>
+        <v>0.7396515998568782</v>
       </c>
       <c r="D4">
-        <v>0.9330715894196859</v>
+        <v>0.9202580287282726</v>
       </c>
       <c r="E4">
-        <v>0.6881809738707573</v>
+        <v>0.6867376105788219</v>
       </c>
       <c r="F4">
-        <v>0.6257848453728361</v>
+        <v>0.6244327983843749</v>
       </c>
       <c r="G4">
-        <v>0.7233213594832695</v>
+        <v>0.7215458874735288</v>
       </c>
       <c r="H4">
-        <v>0.6883860307848382</v>
+        <v>0.6869053491050978</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7297119279800489</v>
+        <v>0.7293867604872588</v>
       </c>
       <c r="C5">
-        <v>0.7690387449955419</v>
+        <v>0.7668410534285477</v>
       </c>
       <c r="D5">
-        <v>0.4309440830318397</v>
+        <v>0.4247129094724361</v>
       </c>
       <c r="E5">
-        <v>0.705642818471615</v>
+        <v>0.7046736107485284</v>
       </c>
       <c r="F5">
-        <v>0.7260768023917057</v>
+        <v>0.7258354903946782</v>
       </c>
       <c r="G5">
-        <v>0.7445591475682957</v>
+        <v>0.7436580617940645</v>
       </c>
       <c r="H5">
-        <v>0.7054237300155883</v>
+        <v>0.7044098395282327</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7196350699087855</v>
+        <v>0.7187228668629096</v>
       </c>
       <c r="C6">
-        <v>0.7667824751844368</v>
+        <v>0.7644877422023012</v>
       </c>
       <c r="D6">
-        <v>0.2792934079750101</v>
+        <v>0.2837220892666605</v>
       </c>
       <c r="E6">
-        <v>0.7041570113012549</v>
+        <v>0.7027173425921137</v>
       </c>
       <c r="F6">
-        <v>0.716303398318879</v>
+        <v>0.7154820880022621</v>
       </c>
       <c r="G6">
-        <v>0.7367427337645944</v>
+        <v>0.7357746999847482</v>
       </c>
       <c r="H6">
-        <v>0.703890219782307</v>
+        <v>0.7024036911943025</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.750260933535949</v>
+        <v>0.7498245758194799</v>
       </c>
       <c r="C7">
-        <v>0.7882170698630783</v>
+        <v>0.7856843859769028</v>
       </c>
       <c r="D7">
-        <v>0.3972063367642816</v>
+        <v>0.401576885974789</v>
       </c>
       <c r="E7">
-        <v>0.7141992649612542</v>
+        <v>0.7130282815819784</v>
       </c>
       <c r="F7">
-        <v>0.7463573843753574</v>
+        <v>0.7460343174914137</v>
       </c>
       <c r="G7">
-        <v>0.7596023721782627</v>
+        <v>0.7585522726615487</v>
       </c>
       <c r="H7">
-        <v>0.7139748435405203</v>
+        <v>0.7127657133716443</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6912002820324787</v>
+        <v>0.6903222019640344</v>
       </c>
       <c r="C8">
-        <v>0.5997573588280085</v>
+        <v>0.5948629548070007</v>
       </c>
       <c r="D8">
-        <v>0.3055990320860469</v>
+        <v>0.3038021567545686</v>
       </c>
       <c r="E8">
-        <v>0.6873361800777542</v>
+        <v>0.6848147166973333</v>
       </c>
       <c r="F8">
-        <v>0.6875028180602804</v>
+        <v>0.686666898898007</v>
       </c>
       <c r="G8">
-        <v>0.6062199347091736</v>
+        <v>0.6022878936784698</v>
       </c>
       <c r="H8">
-        <v>0.6871337866512153</v>
+        <v>0.6845477254926853</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7572872205598351</v>
+        <v>0.7568206031162165</v>
       </c>
       <c r="C9">
-        <v>0.7475034275551753</v>
+        <v>0.7453565595481404</v>
       </c>
       <c r="D9">
-        <v>0.5621988417056959</v>
+        <v>0.5641100114228719</v>
       </c>
       <c r="E9">
-        <v>0.7113311117537741</v>
+        <v>0.7103386006351842</v>
       </c>
       <c r="F9">
-        <v>0.7534733983185975</v>
+        <v>0.7531255498779952</v>
       </c>
       <c r="G9">
-        <v>0.7269928428030368</v>
+        <v>0.7261943490557077</v>
       </c>
       <c r="H9">
-        <v>0.7111870478879032</v>
+        <v>0.7101543221519784</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.754258268190977</v>
+        <v>0.7523855043214686</v>
       </c>
       <c r="C10">
-        <v>0.7844513879967923</v>
+        <v>0.7814954067393087</v>
       </c>
       <c r="D10">
-        <v>1.017761257797655</v>
+        <v>1.011569275504135</v>
       </c>
       <c r="E10">
-        <v>0.7143512953340395</v>
+        <v>0.7119964603128214</v>
       </c>
       <c r="F10">
-        <v>0.7553777551031308</v>
+        <v>0.7535477510794063</v>
       </c>
       <c r="G10">
-        <v>0.7763229825284015</v>
+        <v>0.7743276069489899</v>
       </c>
       <c r="H10">
-        <v>0.7146829984201724</v>
+        <v>0.7122758823361749</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7447720313008772</v>
+        <v>0.7447263700905355</v>
       </c>
       <c r="C11">
-        <v>0.7849792761569867</v>
+        <v>0.7828152745360828</v>
       </c>
       <c r="D11">
-        <v>0.9148357361325565</v>
+        <v>0.9020829115585566</v>
       </c>
       <c r="E11">
-        <v>0.7132767798815473</v>
+        <v>0.7126442726389244</v>
       </c>
       <c r="F11">
-        <v>0.7457774463208716</v>
+        <v>0.7456990317317909</v>
       </c>
       <c r="G11">
-        <v>0.7728310455002891</v>
+        <v>0.7720118857993419</v>
       </c>
       <c r="H11">
-        <v>0.7134427577460672</v>
+        <v>0.712790944671245</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.652261338963132</v>
+        <v>0.651220674327408</v>
       </c>
       <c r="C12">
-        <v>0.7883239554628541</v>
+        <v>0.7856065710047644</v>
       </c>
       <c r="D12">
-        <v>0.4014163224488638</v>
+        <v>0.391530093490966</v>
       </c>
       <c r="E12">
-        <v>0.7081339625048917</v>
+        <v>0.7063020607180248</v>
       </c>
       <c r="F12">
-        <v>0.6557938154063884</v>
+        <v>0.6540875005989942</v>
       </c>
       <c r="G12">
-        <v>0.7589548724890005</v>
+        <v>0.7574339153657651</v>
       </c>
       <c r="H12">
-        <v>0.7079219371201986</v>
+        <v>0.7060317019685548</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7497125826268709</v>
+        <v>0.7479563703930113</v>
       </c>
       <c r="C13">
-        <v>0.7833474802953984</v>
+        <v>0.7805575362458407</v>
       </c>
       <c r="D13">
-        <v>0.8540697271109551</v>
+        <v>0.8449974102226457</v>
       </c>
       <c r="E13">
-        <v>0.7133794941132968</v>
+        <v>0.7111449616502787</v>
       </c>
       <c r="F13">
-        <v>0.7498897852402203</v>
+        <v>0.7481255078652088</v>
       </c>
       <c r="G13">
-        <v>0.7705532770430568</v>
+        <v>0.7686031626159526</v>
       </c>
       <c r="H13">
-        <v>0.7136221310606911</v>
+        <v>0.7113333033618732</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6656782362548082</v>
+        <v>0.672081007344369</v>
       </c>
       <c r="C2">
-        <v>0.7098241526097382</v>
+        <v>0.723168665304872</v>
       </c>
       <c r="D2">
-        <v>1.356451150188942</v>
+        <v>1.487638583328825</v>
       </c>
       <c r="E2">
-        <v>0.6948499821685598</v>
+        <v>0.701551440642474</v>
       </c>
       <c r="F2">
-        <v>0.6767035828922799</v>
+        <v>0.6827356175898305</v>
       </c>
       <c r="G2">
-        <v>0.739899615432439</v>
+        <v>0.7536277294702586</v>
       </c>
       <c r="H2">
-        <v>0.6952771648018571</v>
+        <v>0.7020555702255472</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6945291719047449</v>
+        <v>0.7015778299709426</v>
       </c>
       <c r="C3">
-        <v>0.7155518372566629</v>
+        <v>0.7290325917100523</v>
       </c>
       <c r="D3">
-        <v>1.276233810667159</v>
+        <v>1.408310378582805</v>
       </c>
       <c r="E3">
-        <v>0.7010362124351743</v>
+        <v>0.7078925321183754</v>
       </c>
       <c r="F3">
-        <v>0.6980272502158601</v>
+        <v>0.7044409774657061</v>
       </c>
       <c r="G3">
-        <v>0.7431061246380334</v>
+        <v>0.7570069272544382</v>
       </c>
       <c r="H3">
-        <v>0.7012035129671159</v>
+        <v>0.7081315057986718</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6115471694156789</v>
+        <v>0.6168906973569016</v>
       </c>
       <c r="C4">
-        <v>0.7396515998568782</v>
+        <v>0.7534191860044763</v>
       </c>
       <c r="D4">
-        <v>0.9202580287282726</v>
+        <v>1.005622767603824</v>
       </c>
       <c r="E4">
-        <v>0.6867376105788219</v>
+        <v>0.6933055670541942</v>
       </c>
       <c r="F4">
-        <v>0.6244327983843749</v>
+        <v>0.6296424307716176</v>
       </c>
       <c r="G4">
-        <v>0.7215458874735288</v>
+        <v>0.7349999972699376</v>
       </c>
       <c r="H4">
-        <v>0.6869053491050978</v>
+        <v>0.693547048612115</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7293867604872588</v>
+        <v>0.7373143177077819</v>
       </c>
       <c r="C5">
-        <v>0.7668410534285477</v>
+        <v>0.7813154601969541</v>
       </c>
       <c r="D5">
-        <v>0.4247129094724361</v>
+        <v>0.4406486889174661</v>
       </c>
       <c r="E5">
-        <v>0.7046736107485284</v>
+        <v>0.7117190287704004</v>
       </c>
       <c r="F5">
-        <v>0.7258354903946782</v>
+        <v>0.7328281215101273</v>
       </c>
       <c r="G5">
-        <v>0.7436580617940645</v>
+        <v>0.7577576192567733</v>
       </c>
       <c r="H5">
-        <v>0.7044098395282327</v>
+        <v>0.7115205004370663</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7187228668629096</v>
+        <v>0.7264082756098442</v>
       </c>
       <c r="C6">
-        <v>0.7644877422023012</v>
+        <v>0.7788966201490836</v>
       </c>
       <c r="D6">
-        <v>0.2837220892666605</v>
+        <v>0.2990603850972823</v>
       </c>
       <c r="E6">
-        <v>0.7027173425921137</v>
+        <v>0.709718135770374</v>
       </c>
       <c r="F6">
-        <v>0.7154820880022621</v>
+        <v>0.7222865935179038</v>
       </c>
       <c r="G6">
-        <v>0.7357746999847482</v>
+        <v>0.7497759552333861</v>
       </c>
       <c r="H6">
-        <v>0.7024036911943025</v>
+        <v>0.7094697801252308</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7498245758194799</v>
+        <v>0.7581868676151399</v>
       </c>
       <c r="C7">
-        <v>0.7856843859769028</v>
+        <v>0.800507487256723</v>
       </c>
       <c r="D7">
-        <v>0.401576885974789</v>
+        <v>0.4173120270607643</v>
       </c>
       <c r="E7">
-        <v>0.7130282815819784</v>
+        <v>0.7201921729891058</v>
       </c>
       <c r="F7">
-        <v>0.7460343174914137</v>
+        <v>0.7533715401581433</v>
       </c>
       <c r="G7">
-        <v>0.7585522726615487</v>
+        <v>0.7729662477052786</v>
       </c>
       <c r="H7">
-        <v>0.7127657133716443</v>
+        <v>0.7199951685803621</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6903222019640344</v>
+        <v>0.6972172193191215</v>
       </c>
       <c r="C8">
-        <v>0.5948629548070007</v>
+        <v>0.606126462360837</v>
       </c>
       <c r="D8">
-        <v>0.3038021567545686</v>
+        <v>0.3108452978446444</v>
       </c>
       <c r="E8">
-        <v>0.6848147166973333</v>
+        <v>0.6911889526972824</v>
       </c>
       <c r="F8">
-        <v>0.686666898898007</v>
+        <v>0.6928378562941038</v>
       </c>
       <c r="G8">
-        <v>0.6022878936784698</v>
+        <v>0.6135086850507573</v>
       </c>
       <c r="H8">
-        <v>0.6845477254926853</v>
+        <v>0.6909898094845424</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7568206031162165</v>
+        <v>0.7652800459638724</v>
       </c>
       <c r="C9">
-        <v>0.7453565595481404</v>
+        <v>0.75941793639796</v>
       </c>
       <c r="D9">
-        <v>0.5641100114228719</v>
+        <v>0.5882943898208607</v>
       </c>
       <c r="E9">
-        <v>0.7103386006351842</v>
+        <v>0.7174256421780868</v>
       </c>
       <c r="F9">
-        <v>0.7531255498779952</v>
+        <v>0.7605472385025487</v>
       </c>
       <c r="G9">
-        <v>0.7261943490557077</v>
+        <v>0.7399637731815616</v>
       </c>
       <c r="H9">
-        <v>0.7101543221519784</v>
+        <v>0.7173079007704015</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7523855043214686</v>
+        <v>0.7614197283363611</v>
       </c>
       <c r="C10">
-        <v>0.7814954067393087</v>
+        <v>0.7962211528660872</v>
       </c>
       <c r="D10">
-        <v>1.011569275504135</v>
+        <v>1.107204519682487</v>
       </c>
       <c r="E10">
-        <v>0.7119964603128214</v>
+        <v>0.7192211507500265</v>
       </c>
       <c r="F10">
-        <v>0.7535477510794063</v>
+        <v>0.7614022543224178</v>
       </c>
       <c r="G10">
-        <v>0.7743276069489899</v>
+        <v>0.7888481291569622</v>
       </c>
       <c r="H10">
-        <v>0.7122758823361749</v>
+        <v>0.7195665583922763</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7447263700905355</v>
+        <v>0.7536675349904853</v>
       </c>
       <c r="C11">
-        <v>0.7828152745360828</v>
+        <v>0.7975478595879739</v>
       </c>
       <c r="D11">
-        <v>0.9020829115585566</v>
+        <v>0.988328355728557</v>
       </c>
       <c r="E11">
-        <v>0.7126442726389244</v>
+        <v>0.7198608049094366</v>
       </c>
       <c r="F11">
-        <v>0.7456990317317909</v>
+        <v>0.7534768782313206</v>
       </c>
       <c r="G11">
-        <v>0.7720118857993419</v>
+        <v>0.7865039493820257</v>
       </c>
       <c r="H11">
-        <v>0.712790944671245</v>
+        <v>0.7200733864287132</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.651220674327408</v>
+        <v>0.659795161260209</v>
       </c>
       <c r="C12">
-        <v>0.7856065710047644</v>
+        <v>0.8004431530328775</v>
       </c>
       <c r="D12">
-        <v>0.391530093490966</v>
+        <v>0.430288162070488</v>
       </c>
       <c r="E12">
-        <v>0.7063020607180248</v>
+        <v>0.7135288818346025</v>
       </c>
       <c r="F12">
-        <v>0.6540875005989942</v>
+        <v>0.6614578653373322</v>
       </c>
       <c r="G12">
-        <v>0.7574339153657651</v>
+        <v>0.7717791700251481</v>
       </c>
       <c r="H12">
-        <v>0.7060317019685548</v>
+        <v>0.7133225942756337</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7479563703930113</v>
+        <v>0.7569554584173224</v>
       </c>
       <c r="C13">
-        <v>0.7805575362458407</v>
+        <v>0.7952743077948078</v>
       </c>
       <c r="D13">
-        <v>0.8449974102226457</v>
+        <v>0.9258688481323134</v>
       </c>
       <c r="E13">
-        <v>0.7111449616502787</v>
+        <v>0.7183637077962255</v>
       </c>
       <c r="F13">
-        <v>0.7481255078652088</v>
+        <v>0.7559454293592841</v>
       </c>
       <c r="G13">
-        <v>0.7686031626159526</v>
+        <v>0.7830607682763813</v>
       </c>
       <c r="H13">
-        <v>0.7113333033618732</v>
+        <v>0.7186178328993582</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
@@ -400,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.672081007344369</v>
+        <v>0.6720810073443689</v>
       </c>
       <c r="C2">
-        <v>0.723168665304872</v>
+        <v>0.7231686653048719</v>
       </c>
       <c r="D2">
         <v>1.487638583328825</v>
@@ -418,7 +418,7 @@
         <v>0.7536277294702586</v>
       </c>
       <c r="H2">
-        <v>0.7020555702255472</v>
+        <v>0.7020555702255471</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,16 +426,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7015778299709426</v>
+        <v>0.7015778299709424</v>
       </c>
       <c r="C3">
-        <v>0.7290325917100523</v>
+        <v>0.7290325917100521</v>
       </c>
       <c r="D3">
         <v>1.408310378582805</v>
       </c>
       <c r="E3">
-        <v>0.7078925321183754</v>
+        <v>0.7078925321183753</v>
       </c>
       <c r="F3">
         <v>0.7044409774657061</v>
@@ -452,16 +452,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6168906973569016</v>
+        <v>0.6168906973569015</v>
       </c>
       <c r="C4">
-        <v>0.7534191860044763</v>
+        <v>0.7534191860044762</v>
       </c>
       <c r="D4">
         <v>1.005622767603824</v>
       </c>
       <c r="E4">
-        <v>0.6933055670541942</v>
+        <v>0.693305567054194</v>
       </c>
       <c r="F4">
         <v>0.6296424307716176</v>
@@ -470,7 +470,7 @@
         <v>0.7349999972699376</v>
       </c>
       <c r="H4">
-        <v>0.693547048612115</v>
+        <v>0.6935470486121149</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -496,7 +496,7 @@
         <v>0.7577576192567733</v>
       </c>
       <c r="H5">
-        <v>0.7115205004370663</v>
+        <v>0.7115205004370661</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -522,7 +522,7 @@
         <v>0.7497759552333861</v>
       </c>
       <c r="H6">
-        <v>0.7094697801252308</v>
+        <v>0.7094697801252307</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -548,7 +548,7 @@
         <v>0.7729662477052786</v>
       </c>
       <c r="H7">
-        <v>0.7199951685803621</v>
+        <v>0.7199951685803618</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6972172193191215</v>
+        <v>0.6972172193191213</v>
       </c>
       <c r="C8">
         <v>0.606126462360837</v>
@@ -574,7 +574,7 @@
         <v>0.6135086850507573</v>
       </c>
       <c r="H8">
-        <v>0.6909898094845424</v>
+        <v>0.6909898094845421</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -591,7 +591,7 @@
         <v>0.5882943898208607</v>
       </c>
       <c r="E9">
-        <v>0.7174256421780868</v>
+        <v>0.7174256421780867</v>
       </c>
       <c r="F9">
         <v>0.7605472385025487</v>
@@ -600,7 +600,7 @@
         <v>0.7399637731815616</v>
       </c>
       <c r="H9">
-        <v>0.7173079007704015</v>
+        <v>0.7173079007704014</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7536675349904853</v>
+        <v>0.7536675349904851</v>
       </c>
       <c r="C11">
         <v>0.7975478595879739</v>
@@ -652,7 +652,7 @@
         <v>0.7865039493820257</v>
       </c>
       <c r="H11">
-        <v>0.7200733864287132</v>
+        <v>0.720073386428713</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -663,13 +663,13 @@
         <v>0.659795161260209</v>
       </c>
       <c r="C12">
-        <v>0.8004431530328775</v>
+        <v>0.8004431530328774</v>
       </c>
       <c r="D12">
         <v>0.430288162070488</v>
       </c>
       <c r="E12">
-        <v>0.7135288818346025</v>
+        <v>0.7135288818346024</v>
       </c>
       <c r="F12">
         <v>0.6614578653373322</v>
@@ -686,16 +686,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7569554584173224</v>
+        <v>0.7569554584173221</v>
       </c>
       <c r="C13">
-        <v>0.7952743077948078</v>
+        <v>0.7952743077948077</v>
       </c>
       <c r="D13">
         <v>0.9258688481323134</v>
       </c>
       <c r="E13">
-        <v>0.7183637077962255</v>
+        <v>0.7183637077962254</v>
       </c>
       <c r="F13">
         <v>0.7559454293592841</v>
